--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{6C88B82E-3A87-40A6-9DC7-710158CC4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A26DC9E-DA12-4593-8365-1F53C2937BB9}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{6C88B82E-3A87-40A6-9DC7-710158CC4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E2AE26-6269-4F96-95E3-04FC966CFA50}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Task 3</t>
   </si>
@@ -65,10 +65,6 @@
     <t>PROGRESS</t>
   </si>
   <si>
-    <t>ASSIGNED
-TO</t>
-  </si>
-  <si>
     <t>Project Management Templates</t>
   </si>
   <si>
@@ -79,9 +75,6 @@
   </si>
   <si>
     <t>DAYS</t>
-  </si>
-  <si>
-    <t>Display Week:</t>
   </si>
   <si>
     <t>TASK</t>
@@ -141,9 +134,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -234,9 +224,6 @@
     <t>Data Dictionary and IPO Chart</t>
   </si>
   <si>
-    <t>Diagrams</t>
-  </si>
-  <si>
     <t>Implementation</t>
   </si>
   <si>
@@ -246,9 +233,6 @@
     <t>Main JS development</t>
   </si>
   <si>
-    <t>Project Finalisation</t>
-  </si>
-  <si>
     <t>HTML+CSS Structuring</t>
   </si>
   <si>
@@ -261,9 +245,6 @@
     <t>JS test run and debugging</t>
   </si>
   <si>
-    <t>Website operation tests</t>
-  </si>
-  <si>
     <t>ends 5/8/2022</t>
   </si>
   <si>
@@ -276,13 +257,38 @@
     <t>Gantt Chart</t>
   </si>
   <si>
-    <t>Full software test</t>
-  </si>
-  <si>
-    <t>Software evaluation</t>
-  </si>
-  <si>
     <t>Entire Project Finalisation</t>
+  </si>
+  <si>
+    <t>Modelling Diagrams</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display Week:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Change This Number to Scroll the Chart) </t>
+    </r>
+  </si>
+  <si>
+    <t>Code Finalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software evaluation </t>
+  </si>
+  <si>
+    <t>Full software testing</t>
+  </si>
+  <si>
+    <t>HTML operation tests</t>
   </si>
 </sst>
 </file>
@@ -296,7 +302,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +483,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -713,7 +726,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -947,6 +960,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -956,28 +988,12 @@
     <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1546,9 +1562,9 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1567,144 +1583,144 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="47"/>
       <c r="H1" s="2"/>
       <c r="I1" s="80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="88">
+      <c r="D3" s="89"/>
+      <c r="E3" s="93">
         <v>44593</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="87"/>
+        <v>36</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="83">
+        <v>19</v>
+      </c>
+      <c r="I4" s="90">
         <f>I5</f>
-        <v>44592</v>
-      </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="83">
+        <v>44718</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
-        <v>44599</v>
-      </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="83">
+        <v>44725</v>
+      </c>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
-        <v>44606</v>
-      </c>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="83">
+        <v>44732</v>
+      </c>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
-        <v>44613</v>
-      </c>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="85"/>
-      <c r="AK4" s="83">
+        <v>44739</v>
+      </c>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
-        <v>44620</v>
-      </c>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="83">
+        <v>44746</v>
+      </c>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
-        <v>44627</v>
-      </c>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="83">
+        <v>44753</v>
+      </c>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
-        <v>44634</v>
-      </c>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="85"/>
-      <c r="BF4" s="83">
+        <v>44760</v>
+      </c>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
-        <v>44641</v>
-      </c>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="85"/>
+        <v>44767</v>
+      </c>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -1714,251 +1730,249 @@
       <c r="G5" s="79"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44592</v>
+        <v>44718</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44593</v>
+        <v>44719</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44594</v>
+        <v>44720</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44595</v>
+        <v>44721</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44596</v>
+        <v>44722</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44597</v>
+        <v>44723</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44598</v>
+        <v>44724</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44599</v>
+        <v>44725</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44600</v>
+        <v>44726</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44601</v>
+        <v>44727</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44602</v>
+        <v>44728</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44603</v>
+        <v>44729</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44604</v>
+        <v>44730</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44605</v>
+        <v>44731</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44606</v>
+        <v>44732</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44607</v>
+        <v>44733</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44608</v>
+        <v>44734</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44609</v>
+        <v>44735</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44610</v>
+        <v>44736</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44611</v>
+        <v>44737</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44612</v>
+        <v>44738</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44613</v>
+        <v>44739</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44614</v>
+        <v>44740</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44615</v>
+        <v>44741</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44616</v>
+        <v>44742</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44617</v>
+        <v>44743</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44618</v>
+        <v>44744</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44619</v>
+        <v>44745</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44620</v>
+        <v>44746</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44621</v>
+        <v>44747</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44622</v>
+        <v>44748</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44623</v>
+        <v>44749</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44624</v>
+        <v>44750</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44625</v>
+        <v>44751</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44626</v>
+        <v>44752</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44627</v>
+        <v>44753</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44628</v>
+        <v>44754</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44629</v>
+        <v>44755</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44630</v>
+        <v>44756</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44631</v>
+        <v>44757</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44632</v>
+        <v>44758</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44633</v>
+        <v>44759</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44634</v>
+        <v>44760</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44635</v>
+        <v>44761</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44636</v>
+        <v>44762</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44637</v>
+        <v>44763</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44638</v>
+        <v>44764</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44639</v>
+        <v>44765</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44640</v>
+        <v>44766</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44641</v>
+        <v>44767</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44642</v>
+        <v>44768</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44643</v>
+        <v>44769</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44644</v>
+        <v>44770</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44645</v>
+        <v>44771</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44646</v>
+        <v>44772</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44647</v>
+        <v>44773</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2187,7 +2201,7 @@
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="61"/>
       <c r="E7"/>
@@ -2254,10 +2268,10 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="19"/>
@@ -2327,27 +2341,25 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C9" s="66"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="91">
+      <c r="E9" s="85">
         <f>Project_Start</f>
         <v>44593</v>
       </c>
-      <c r="F9" s="91">
-        <f>E9+14</f>
-        <v>44607</v>
+      <c r="F9" s="85">
+        <f>E9+31</f>
+        <v>44624</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2408,25 +2420,25 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="91">
+      <c r="E10" s="85">
         <f>F9</f>
-        <v>44607</v>
-      </c>
-      <c r="F10" s="91">
-        <f>E10+2</f>
-        <v>44609</v>
+        <v>44624</v>
+      </c>
+      <c r="F10" s="85">
+        <f>E10+25</f>
+        <v>44649</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -2488,22 +2500,22 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="58"/>
       <c r="B11" s="74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="91">
-        <f>F10</f>
-        <v>44609</v>
-      </c>
-      <c r="F11" s="91">
-        <f>E11+4</f>
-        <v>44613</v>
+      <c r="E11" s="85">
+        <f>F9</f>
+        <v>44624</v>
+      </c>
+      <c r="F11" s="85">
+        <f>E11+7</f>
+        <v>44631</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2565,22 +2577,22 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="58"/>
       <c r="B12" s="74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="91">
-        <f>F11</f>
-        <v>44613</v>
-      </c>
-      <c r="F12" s="91">
-        <f>E12+5</f>
-        <v>44618</v>
+      <c r="E12" s="85">
+        <f>F9+8</f>
+        <v>44632</v>
+      </c>
+      <c r="F12" s="85">
+        <f>E12+7</f>
+        <v>44639</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2642,22 +2654,22 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="58"/>
       <c r="B13" s="74" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="91">
-        <f>E10+1</f>
-        <v>44608</v>
-      </c>
-      <c r="F13" s="91">
-        <f>E13+2</f>
-        <v>44610</v>
+      <c r="E13" s="85">
+        <f>F12+1</f>
+        <v>44640</v>
+      </c>
+      <c r="F13" s="85">
+        <f>E13+9</f>
+        <v>44649</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2718,10 +2730,10 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="24"/>
@@ -2792,22 +2804,22 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="59"/>
       <c r="B15" s="75" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="90">
-        <f>E13+1</f>
-        <v>44609</v>
-      </c>
-      <c r="F15" s="90">
-        <f>E15+4</f>
-        <v>44613</v>
+      <c r="E15" s="84">
+        <f>F13+1</f>
+        <v>44650</v>
+      </c>
+      <c r="F15" s="84">
+        <f>E15+7</f>
+        <v>44657</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2869,22 +2881,22 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="58"/>
       <c r="B16" s="75" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="90">
-        <f>E15+2</f>
-        <v>44611</v>
-      </c>
-      <c r="F16" s="90">
-        <f>E16+5</f>
-        <v>44616</v>
+      <c r="E16" s="84">
+        <f>F15+1</f>
+        <v>44658</v>
+      </c>
+      <c r="F16" s="84">
+        <f>E16+7</f>
+        <v>44665</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2946,22 +2958,22 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="58"/>
       <c r="B17" s="75" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="90">
-        <f>F16</f>
-        <v>44616</v>
-      </c>
-      <c r="F17" s="90">
-        <f>E17+3</f>
-        <v>44619</v>
+      <c r="E17" s="84">
+        <f>F16+1</f>
+        <v>44666</v>
+      </c>
+      <c r="F17" s="84">
+        <f>E17+60</f>
+        <v>44726</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -3023,22 +3035,22 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="58"/>
       <c r="B18" s="75" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="90">
+      <c r="E18" s="84">
         <f>E17</f>
-        <v>44616</v>
-      </c>
-      <c r="F18" s="90">
-        <f>E18+2</f>
-        <v>44618</v>
+        <v>44666</v>
+      </c>
+      <c r="F18" s="84">
+        <f>E18+60</f>
+        <v>44726</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3100,22 +3112,22 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="58"/>
       <c r="B19" s="75" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="90">
-        <f>E18</f>
-        <v>44616</v>
-      </c>
-      <c r="F19" s="90">
-        <f>E19+3</f>
-        <v>44619</v>
+      <c r="E19" s="84">
+        <f>F18+1</f>
+        <v>44727</v>
+      </c>
+      <c r="F19" s="84">
+        <f>E19+10</f>
+        <v>44737</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3176,10 +3188,10 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="29"/>
@@ -3250,22 +3262,22 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="58"/>
       <c r="B21" s="76" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="89">
-        <f>E9+15</f>
-        <v>44608</v>
-      </c>
-      <c r="F21" s="89">
-        <f>E21+5</f>
-        <v>44613</v>
+      <c r="E21" s="83">
+        <f>F19+1</f>
+        <v>44738</v>
+      </c>
+      <c r="F21" s="83">
+        <f>E21+15</f>
+        <v>44753</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3327,22 +3339,22 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="58"/>
       <c r="B22" s="76" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C22" s="70"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="89">
-        <f>F21+1</f>
-        <v>44614</v>
-      </c>
-      <c r="F22" s="89">
-        <f>E22+4</f>
-        <v>44618</v>
+      <c r="E22" s="83">
+        <f>E21</f>
+        <v>44738</v>
+      </c>
+      <c r="F22" s="83">
+        <f>E22+15</f>
+        <v>44753</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3404,22 +3416,22 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="58"/>
       <c r="B23" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="32"/>
-      <c r="E23" s="89">
-        <f>E22+5</f>
-        <v>44619</v>
-      </c>
-      <c r="F23" s="89">
-        <f>E23+5</f>
-        <v>44624</v>
+      <c r="E23" s="83">
+        <f>F22+1</f>
+        <v>44754</v>
+      </c>
+      <c r="F23" s="83">
+        <f>E23+7</f>
+        <v>44761</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3481,17 +3493,17 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="58"/>
       <c r="B24" s="76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="89">
+      <c r="E24" s="83">
         <f>F23+1</f>
-        <v>44625</v>
-      </c>
-      <c r="F24" s="89">
+        <v>44762</v>
+      </c>
+      <c r="F24" s="83">
         <f>E24+4</f>
-        <v>44629</v>
+        <v>44766</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
@@ -3558,22 +3570,22 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="58"/>
       <c r="B25" s="76" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C25" s="70"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="89">
-        <f>E23</f>
-        <v>44619</v>
-      </c>
-      <c r="F25" s="89">
-        <f>E25+4</f>
-        <v>44623</v>
+      <c r="E25" s="83">
+        <f>F24+1</f>
+        <v>44767</v>
+      </c>
+      <c r="F25" s="83">
+        <f>E25+11</f>
+        <v>44778</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3634,10 +3646,10 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="34"/>
@@ -3713,10 +3725,10 @@
       <c r="C27" s="72"/>
       <c r="D27" s="37"/>
       <c r="E27" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="e">
@@ -3788,10 +3800,10 @@
       <c r="C28" s="72"/>
       <c r="D28" s="37"/>
       <c r="E28" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="e">
@@ -3863,10 +3875,10 @@
       <c r="C29" s="72"/>
       <c r="D29" s="37"/>
       <c r="E29" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="e">
@@ -3938,10 +3950,10 @@
       <c r="C30" s="72"/>
       <c r="D30" s="37"/>
       <c r="E30" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="e">
@@ -4013,10 +4025,10 @@
       <c r="C31" s="72"/>
       <c r="D31" s="37"/>
       <c r="E31" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="e">
@@ -4082,7 +4094,7 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="78"/>
       <c r="C32" s="73"/>
@@ -4153,7 +4165,7 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>5</v>
@@ -4236,17 +4248,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4290,9 +4302,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4321,7 +4330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4332,79 +4341,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A4" s="52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A8" s="52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.5">
       <c r="A9" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A11" s="52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.5">
       <c r="A12" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A14" s="52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.5">
       <c r="A16" s="53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4421,35 +4430,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4737,27 +4717,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4776,4 +4765,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{6C88B82E-3A87-40A6-9DC7-710158CC4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E2AE26-6269-4F96-95E3-04FC966CFA50}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{6C88B82E-3A87-40A6-9DC7-710158CC4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D562133-4AA9-4780-89DF-711F03E28407}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,23 +973,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
@@ -1563,8 +1563,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1617,14 +1617,14 @@
       <c r="B3" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="93">
+      <c r="D3" s="93"/>
+      <c r="E3" s="91">
         <v>44593</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="59" t="s">
@@ -1633,90 +1633,90 @@
       <c r="C4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="7">
-        <v>19</v>
-      </c>
-      <c r="I4" s="90">
+        <v>3</v>
+      </c>
+      <c r="I4" s="88">
         <f>I5</f>
-        <v>44718</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>44606</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
-        <v>44725</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>44613</v>
+      </c>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
-        <v>44732</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>44620</v>
+      </c>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
-        <v>44739</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>44627</v>
+      </c>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
-        <v>44746</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>44634</v>
+      </c>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
-        <v>44753</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>44641</v>
+      </c>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
-        <v>44760</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>44648</v>
+      </c>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
-        <v>44767</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>44655</v>
+      </c>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="59" t="s">
@@ -1730,227 +1730,227 @@
       <c r="G5" s="79"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44718</v>
+        <v>44606</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44719</v>
+        <v>44607</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44720</v>
+        <v>44608</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44721</v>
+        <v>44609</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44722</v>
+        <v>44610</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44723</v>
+        <v>44611</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44724</v>
+        <v>44612</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44725</v>
+        <v>44613</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44726</v>
+        <v>44614</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44727</v>
+        <v>44615</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44728</v>
+        <v>44616</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44729</v>
+        <v>44617</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44730</v>
+        <v>44618</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44731</v>
+        <v>44619</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44732</v>
+        <v>44620</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44733</v>
+        <v>44621</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44734</v>
+        <v>44622</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44735</v>
+        <v>44623</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44736</v>
+        <v>44624</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44737</v>
+        <v>44625</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44738</v>
+        <v>44626</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44739</v>
+        <v>44627</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44740</v>
+        <v>44628</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44741</v>
+        <v>44629</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44742</v>
+        <v>44630</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44743</v>
+        <v>44631</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44744</v>
+        <v>44632</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44745</v>
+        <v>44633</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44746</v>
+        <v>44634</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44747</v>
+        <v>44635</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44748</v>
+        <v>44636</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44749</v>
+        <v>44637</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44750</v>
+        <v>44638</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44751</v>
+        <v>44639</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44752</v>
+        <v>44640</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44753</v>
+        <v>44641</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44754</v>
+        <v>44642</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44755</v>
+        <v>44643</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44756</v>
+        <v>44644</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44757</v>
+        <v>44645</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44758</v>
+        <v>44646</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44759</v>
+        <v>44647</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44760</v>
+        <v>44648</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44761</v>
+        <v>44649</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44762</v>
+        <v>44650</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44763</v>
+        <v>44651</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44764</v>
+        <v>44652</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44765</v>
+        <v>44653</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44766</v>
+        <v>44654</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44767</v>
+        <v>44655</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44768</v>
+        <v>44656</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44769</v>
+        <v>44657</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44770</v>
+        <v>44658</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44771</v>
+        <v>44659</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44772</v>
+        <v>44660</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44773</v>
+        <v>44661</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4248,17 +4248,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4430,6 +4430,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4717,36 +4746,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4765,24 +4785,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{6C88B82E-3A87-40A6-9DC7-710158CC4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92FF83B5-F603-455C-8827-E3BB3CA234AD}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{6C88B82E-3A87-40A6-9DC7-710158CC4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687143C8-CEB6-4ACB-AB6E-80F928978C5C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>HTML operation tests</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1131,29 +1134,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1223,6 +1205,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1794,7 +1797,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="BS14" sqref="BS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1828,19 +1831,19 @@
       <c r="I1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="103"/>
-      <c r="BP1" s="103"/>
-      <c r="BQ1" s="103"/>
-      <c r="BR1" s="103"/>
-      <c r="BS1" s="103"/>
-      <c r="BT1" s="103"/>
-      <c r="BU1" s="103"/>
-      <c r="BV1" s="103"/>
-      <c r="BW1" s="103"/>
-      <c r="BX1" s="103"/>
-      <c r="BY1" s="103"/>
-      <c r="BZ1" s="104"/>
+      <c r="BN1" s="95"/>
+      <c r="BO1" s="96"/>
+      <c r="BP1" s="96"/>
+      <c r="BQ1" s="96"/>
+      <c r="BR1" s="96"/>
+      <c r="BS1" s="96"/>
+      <c r="BT1" s="96"/>
+      <c r="BU1" s="96"/>
+      <c r="BV1" s="96"/>
+      <c r="BW1" s="96"/>
+      <c r="BX1" s="96"/>
+      <c r="BY1" s="96"/>
+      <c r="BZ1" s="97"/>
     </row>
     <row r="2" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
@@ -1852,19 +1855,19 @@
       <c r="I2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="BN2" s="105"/>
-      <c r="BO2" s="106"/>
-      <c r="BP2" s="106"/>
-      <c r="BQ2" s="106"/>
-      <c r="BR2" s="106"/>
-      <c r="BS2" s="106"/>
-      <c r="BT2" s="106"/>
-      <c r="BU2" s="106"/>
-      <c r="BV2" s="106"/>
-      <c r="BW2" s="106"/>
-      <c r="BX2" s="106"/>
-      <c r="BY2" s="106"/>
-      <c r="BZ2" s="107"/>
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="99"/>
+      <c r="BP2" s="99"/>
+      <c r="BQ2" s="99"/>
+      <c r="BR2" s="99"/>
+      <c r="BS2" s="99"/>
+      <c r="BT2" s="99"/>
+      <c r="BU2" s="99"/>
+      <c r="BV2" s="99"/>
+      <c r="BW2" s="99"/>
+      <c r="BX2" s="99"/>
+      <c r="BY2" s="99"/>
+      <c r="BZ2" s="100"/>
     </row>
     <row r="3" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
@@ -1873,132 +1876,132 @@
       <c r="B3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="80">
+      <c r="D3" s="110"/>
+      <c r="E3" s="108">
         <v>44593</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="BN3" s="105"/>
-      <c r="BO3" s="106"/>
-      <c r="BP3" s="106"/>
-      <c r="BQ3" s="106"/>
-      <c r="BR3" s="106"/>
-      <c r="BS3" s="106"/>
-      <c r="BT3" s="106"/>
-      <c r="BU3" s="106"/>
-      <c r="BV3" s="106"/>
-      <c r="BW3" s="106"/>
-      <c r="BX3" s="106"/>
-      <c r="BY3" s="106"/>
-      <c r="BZ3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="BN3" s="98"/>
+      <c r="BO3" s="99"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="99"/>
+      <c r="BT3" s="99"/>
+      <c r="BU3" s="99"/>
+      <c r="BV3" s="99"/>
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="100"/>
     </row>
     <row r="4" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="81">
+      <c r="D4" s="110"/>
+      <c r="E4" s="77">
         <v>25</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="105">
         <f>I5</f>
         <v>44760</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="82">
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="105">
         <f>P5</f>
         <v>44767</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="82">
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="105">
         <f>W5</f>
         <v>44774</v>
       </c>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="82">
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="105">
         <f>AD5</f>
         <v>44781</v>
       </c>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="82">
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="105">
         <f>AK5</f>
         <v>44788</v>
       </c>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="82">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="105">
         <f>AR5</f>
         <v>44795</v>
       </c>
-      <c r="AS4" s="83"/>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="82">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="105">
         <f>AY5</f>
         <v>44802</v>
       </c>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="82">
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="105">
         <f>BF5</f>
         <v>44809</v>
       </c>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="83"/>
-      <c r="BI4" s="83"/>
-      <c r="BJ4" s="83"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="84"/>
-      <c r="BN4" s="105"/>
-      <c r="BO4" s="106"/>
-      <c r="BP4" s="106"/>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="106"/>
-      <c r="BT4" s="106"/>
-      <c r="BU4" s="106"/>
-      <c r="BV4" s="106"/>
-      <c r="BW4" s="106"/>
-      <c r="BX4" s="106"/>
-      <c r="BY4" s="106"/>
-      <c r="BZ4" s="107"/>
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="107"/>
+      <c r="BN4" s="98"/>
+      <c r="BO4" s="99"/>
+      <c r="BP4" s="99"/>
+      <c r="BQ4" s="99"/>
+      <c r="BR4" s="99"/>
+      <c r="BS4" s="99"/>
+      <c r="BT4" s="99"/>
+      <c r="BU4" s="99"/>
+      <c r="BV4" s="99"/>
+      <c r="BW4" s="99"/>
+      <c r="BX4" s="99"/>
+      <c r="BY4" s="99"/>
+      <c r="BZ4" s="100"/>
     </row>
     <row r="5" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
@@ -2234,19 +2237,19 @@
         <f t="shared" si="2"/>
         <v>44815</v>
       </c>
-      <c r="BN5" s="105"/>
-      <c r="BO5" s="106"/>
-      <c r="BP5" s="106"/>
-      <c r="BQ5" s="106"/>
-      <c r="BR5" s="106"/>
-      <c r="BS5" s="106"/>
-      <c r="BT5" s="106"/>
-      <c r="BU5" s="106"/>
-      <c r="BV5" s="106"/>
-      <c r="BW5" s="106"/>
-      <c r="BX5" s="106"/>
-      <c r="BY5" s="106"/>
-      <c r="BZ5" s="107"/>
+      <c r="BN5" s="98"/>
+      <c r="BO5" s="99"/>
+      <c r="BP5" s="99"/>
+      <c r="BQ5" s="99"/>
+      <c r="BR5" s="99"/>
+      <c r="BS5" s="99"/>
+      <c r="BT5" s="99"/>
+      <c r="BU5" s="99"/>
+      <c r="BV5" s="99"/>
+      <c r="BW5" s="99"/>
+      <c r="BX5" s="99"/>
+      <c r="BY5" s="99"/>
+      <c r="BZ5" s="100"/>
     </row>
     <row r="6" spans="1:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
@@ -2493,19 +2496,19 @@
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="106"/>
-      <c r="BP6" s="106"/>
-      <c r="BQ6" s="106"/>
-      <c r="BR6" s="106"/>
-      <c r="BS6" s="106"/>
-      <c r="BT6" s="106"/>
-      <c r="BU6" s="106"/>
-      <c r="BV6" s="106"/>
-      <c r="BW6" s="106"/>
-      <c r="BX6" s="106"/>
-      <c r="BY6" s="106"/>
-      <c r="BZ6" s="107"/>
+      <c r="BN6" s="98"/>
+      <c r="BO6" s="99"/>
+      <c r="BP6" s="99"/>
+      <c r="BQ6" s="99"/>
+      <c r="BR6" s="99"/>
+      <c r="BS6" s="99"/>
+      <c r="BT6" s="99"/>
+      <c r="BU6" s="99"/>
+      <c r="BV6" s="99"/>
+      <c r="BW6" s="99"/>
+      <c r="BX6" s="99"/>
+      <c r="BY6" s="99"/>
+      <c r="BZ6" s="100"/>
     </row>
     <row r="7" spans="1:78" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
@@ -2517,75 +2520,75 @@
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="85"/>
-      <c r="BC7" s="85"/>
-      <c r="BD7" s="85"/>
-      <c r="BE7" s="85"/>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
-      <c r="BI7" s="85"/>
-      <c r="BJ7" s="85"/>
-      <c r="BK7" s="85"/>
-      <c r="BL7" s="85"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="106"/>
-      <c r="BP7" s="106"/>
-      <c r="BQ7" s="106"/>
-      <c r="BR7" s="106"/>
-      <c r="BS7" s="106"/>
-      <c r="BT7" s="106"/>
-      <c r="BU7" s="106"/>
-      <c r="BV7" s="106"/>
-      <c r="BW7" s="106"/>
-      <c r="BX7" s="106"/>
-      <c r="BY7" s="106"/>
-      <c r="BZ7" s="107"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BN7" s="98"/>
+      <c r="BO7" s="99"/>
+      <c r="BP7" s="99"/>
+      <c r="BQ7" s="99"/>
+      <c r="BR7" s="99"/>
+      <c r="BS7" s="99"/>
+      <c r="BT7" s="99"/>
+      <c r="BU7" s="99"/>
+      <c r="BV7" s="99"/>
+      <c r="BW7" s="99"/>
+      <c r="BX7" s="99"/>
+      <c r="BY7" s="99"/>
+      <c r="BZ7" s="100"/>
     </row>
     <row r="8" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
@@ -2598,80 +2601,80 @@
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89" t="str">
+      <c r="G8" s="81"/>
+      <c r="H8" s="82" t="str">
         <f t="shared" ref="H8:H33" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="110"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="110"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="110"/>
-      <c r="BG8" s="110"/>
-      <c r="BH8" s="110"/>
-      <c r="BI8" s="110"/>
-      <c r="BJ8" s="110"/>
-      <c r="BK8" s="110"/>
-      <c r="BL8" s="110"/>
-      <c r="BN8" s="95"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="93"/>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="96"/>
-      <c r="BW8" s="101"/>
-      <c r="BX8" s="101"/>
-      <c r="BY8" s="101"/>
-      <c r="BZ8" s="99"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="103"/>
+      <c r="AZ8" s="103"/>
+      <c r="BA8" s="103"/>
+      <c r="BB8" s="103"/>
+      <c r="BC8" s="103"/>
+      <c r="BD8" s="103"/>
+      <c r="BE8" s="103"/>
+      <c r="BF8" s="103"/>
+      <c r="BG8" s="103"/>
+      <c r="BH8" s="103"/>
+      <c r="BI8" s="103"/>
+      <c r="BJ8" s="103"/>
+      <c r="BK8" s="103"/>
+      <c r="BL8" s="103"/>
+      <c r="BN8" s="88"/>
+      <c r="BO8" s="86"/>
+      <c r="BP8" s="86"/>
+      <c r="BQ8" s="86"/>
+      <c r="BR8" s="86"/>
+      <c r="BS8" s="86"/>
+      <c r="BT8" s="86"/>
+      <c r="BU8" s="86"/>
+      <c r="BV8" s="89"/>
+      <c r="BW8" s="94"/>
+      <c r="BX8" s="94"/>
+      <c r="BY8" s="94"/>
+      <c r="BZ8" s="92"/>
     </row>
     <row r="9" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
@@ -2690,80 +2693,80 @@
         <f>E9+31</f>
         <v>44624</v>
       </c>
-      <c r="G9" s="90"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="16">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="110"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="110"/>
-      <c r="AS9" s="110"/>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="110"/>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="110"/>
-      <c r="BD9" s="110"/>
-      <c r="BE9" s="110"/>
-      <c r="BF9" s="110"/>
-      <c r="BG9" s="110"/>
-      <c r="BH9" s="110"/>
-      <c r="BI9" s="110"/>
-      <c r="BJ9" s="110"/>
-      <c r="BK9" s="110"/>
-      <c r="BL9" s="110"/>
-      <c r="BN9" s="97"/>
-      <c r="BO9" s="101"/>
-      <c r="BP9" s="101"/>
-      <c r="BQ9" s="101"/>
-      <c r="BR9" s="101"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="101"/>
-      <c r="BU9" s="101"/>
-      <c r="BV9" s="99"/>
-      <c r="BW9" s="101"/>
-      <c r="BX9" s="101"/>
-      <c r="BY9" s="101"/>
-      <c r="BZ9" s="99"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="103"/>
+      <c r="AN9" s="103"/>
+      <c r="AO9" s="103"/>
+      <c r="AP9" s="103"/>
+      <c r="AQ9" s="103"/>
+      <c r="AR9" s="103"/>
+      <c r="AS9" s="103"/>
+      <c r="AT9" s="103"/>
+      <c r="AU9" s="103"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="103"/>
+      <c r="AY9" s="103"/>
+      <c r="AZ9" s="103"/>
+      <c r="BA9" s="103"/>
+      <c r="BB9" s="103"/>
+      <c r="BC9" s="103"/>
+      <c r="BD9" s="103"/>
+      <c r="BE9" s="103"/>
+      <c r="BF9" s="103"/>
+      <c r="BG9" s="103"/>
+      <c r="BH9" s="103"/>
+      <c r="BI9" s="103"/>
+      <c r="BJ9" s="103"/>
+      <c r="BK9" s="103"/>
+      <c r="BL9" s="103"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="94"/>
+      <c r="BP9" s="94"/>
+      <c r="BQ9" s="94"/>
+      <c r="BR9" s="94"/>
+      <c r="BS9" s="94"/>
+      <c r="BT9" s="94"/>
+      <c r="BU9" s="94"/>
+      <c r="BV9" s="92"/>
+      <c r="BW9" s="94"/>
+      <c r="BX9" s="94"/>
+      <c r="BY9" s="94"/>
+      <c r="BZ9" s="92"/>
     </row>
     <row r="10" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
@@ -2782,80 +2785,80 @@
         <f>E10+25</f>
         <v>44649</v>
       </c>
-      <c r="G10" s="90"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="16">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="110"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="110"/>
-      <c r="AN10" s="110"/>
-      <c r="AO10" s="110"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="110"/>
-      <c r="AS10" s="110"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="110"/>
-      <c r="AY10" s="110"/>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="110"/>
-      <c r="BC10" s="110"/>
-      <c r="BD10" s="110"/>
-      <c r="BE10" s="110"/>
-      <c r="BF10" s="110"/>
-      <c r="BG10" s="110"/>
-      <c r="BH10" s="110"/>
-      <c r="BI10" s="110"/>
-      <c r="BJ10" s="110"/>
-      <c r="BK10" s="110"/>
-      <c r="BL10" s="110"/>
-      <c r="BN10" s="97"/>
-      <c r="BO10" s="101"/>
-      <c r="BP10" s="101"/>
-      <c r="BQ10" s="101"/>
-      <c r="BR10" s="101"/>
-      <c r="BS10" s="101"/>
-      <c r="BT10" s="101"/>
-      <c r="BU10" s="101"/>
-      <c r="BV10" s="99"/>
-      <c r="BW10" s="101"/>
-      <c r="BX10" s="101"/>
-      <c r="BY10" s="101"/>
-      <c r="BZ10" s="99"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="103"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="103"/>
+      <c r="BB10" s="103"/>
+      <c r="BC10" s="103"/>
+      <c r="BD10" s="103"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="103"/>
+      <c r="BG10" s="103"/>
+      <c r="BH10" s="103"/>
+      <c r="BI10" s="103"/>
+      <c r="BJ10" s="103"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BN10" s="90"/>
+      <c r="BO10" s="94"/>
+      <c r="BP10" s="94"/>
+      <c r="BQ10" s="94"/>
+      <c r="BR10" s="94"/>
+      <c r="BS10" s="94"/>
+      <c r="BT10" s="94"/>
+      <c r="BU10" s="94"/>
+      <c r="BV10" s="92"/>
+      <c r="BW10" s="94"/>
+      <c r="BX10" s="94"/>
+      <c r="BY10" s="94"/>
+      <c r="BZ10" s="92"/>
     </row>
     <row r="11" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
@@ -2872,80 +2875,80 @@
         <f>E11+7</f>
         <v>44631</v>
       </c>
-      <c r="G11" s="90"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
-      <c r="BJ11" s="110"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BN11" s="97"/>
-      <c r="BO11" s="101"/>
-      <c r="BP11" s="101"/>
-      <c r="BQ11" s="101"/>
-      <c r="BR11" s="101"/>
-      <c r="BS11" s="101"/>
-      <c r="BT11" s="101"/>
-      <c r="BU11" s="101"/>
-      <c r="BV11" s="99"/>
-      <c r="BW11" s="101"/>
-      <c r="BX11" s="101"/>
-      <c r="BY11" s="101"/>
-      <c r="BZ11" s="99"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="103"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="103"/>
+      <c r="AP11" s="103"/>
+      <c r="AQ11" s="103"/>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="103"/>
+      <c r="AV11" s="103"/>
+      <c r="AW11" s="103"/>
+      <c r="AX11" s="103"/>
+      <c r="AY11" s="103"/>
+      <c r="AZ11" s="103"/>
+      <c r="BA11" s="103"/>
+      <c r="BB11" s="103"/>
+      <c r="BC11" s="103"/>
+      <c r="BD11" s="103"/>
+      <c r="BE11" s="103"/>
+      <c r="BF11" s="103"/>
+      <c r="BG11" s="103"/>
+      <c r="BH11" s="103"/>
+      <c r="BI11" s="103"/>
+      <c r="BJ11" s="103"/>
+      <c r="BK11" s="103"/>
+      <c r="BL11" s="103"/>
+      <c r="BN11" s="90"/>
+      <c r="BO11" s="94"/>
+      <c r="BP11" s="94"/>
+      <c r="BQ11" s="94"/>
+      <c r="BR11" s="94"/>
+      <c r="BS11" s="94"/>
+      <c r="BT11" s="94"/>
+      <c r="BU11" s="94"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="94"/>
+      <c r="BX11" s="94"/>
+      <c r="BY11" s="94"/>
+      <c r="BZ11" s="92"/>
     </row>
     <row r="12" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
@@ -2962,80 +2965,80 @@
         <f>E12+7</f>
         <v>44639</v>
       </c>
-      <c r="G12" s="90"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="110"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="110"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="110"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="110"/>
-      <c r="AS12" s="110"/>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="110"/>
-      <c r="AV12" s="110"/>
-      <c r="AW12" s="110"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="110"/>
-      <c r="AZ12" s="110"/>
-      <c r="BA12" s="110"/>
-      <c r="BB12" s="110"/>
-      <c r="BC12" s="110"/>
-      <c r="BD12" s="110"/>
-      <c r="BE12" s="110"/>
-      <c r="BF12" s="110"/>
-      <c r="BG12" s="110"/>
-      <c r="BH12" s="110"/>
-      <c r="BI12" s="110"/>
-      <c r="BJ12" s="110"/>
-      <c r="BK12" s="110"/>
-      <c r="BL12" s="110"/>
-      <c r="BN12" s="97"/>
-      <c r="BO12" s="101"/>
-      <c r="BP12" s="101"/>
-      <c r="BQ12" s="101"/>
-      <c r="BR12" s="101"/>
-      <c r="BS12" s="101"/>
-      <c r="BT12" s="101"/>
-      <c r="BU12" s="101"/>
-      <c r="BV12" s="99"/>
-      <c r="BW12" s="101"/>
-      <c r="BX12" s="101"/>
-      <c r="BY12" s="101"/>
-      <c r="BZ12" s="99"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="103"/>
+      <c r="AM12" s="103"/>
+      <c r="AN12" s="103"/>
+      <c r="AO12" s="103"/>
+      <c r="AP12" s="103"/>
+      <c r="AQ12" s="103"/>
+      <c r="AR12" s="103"/>
+      <c r="AS12" s="103"/>
+      <c r="AT12" s="103"/>
+      <c r="AU12" s="103"/>
+      <c r="AV12" s="103"/>
+      <c r="AW12" s="103"/>
+      <c r="AX12" s="103"/>
+      <c r="AY12" s="103"/>
+      <c r="AZ12" s="103"/>
+      <c r="BA12" s="103"/>
+      <c r="BB12" s="103"/>
+      <c r="BC12" s="103"/>
+      <c r="BD12" s="103"/>
+      <c r="BE12" s="103"/>
+      <c r="BF12" s="103"/>
+      <c r="BG12" s="103"/>
+      <c r="BH12" s="103"/>
+      <c r="BI12" s="103"/>
+      <c r="BJ12" s="103"/>
+      <c r="BK12" s="103"/>
+      <c r="BL12" s="103"/>
+      <c r="BN12" s="90"/>
+      <c r="BO12" s="94"/>
+      <c r="BP12" s="94"/>
+      <c r="BQ12" s="94"/>
+      <c r="BR12" s="94"/>
+      <c r="BS12" s="94"/>
+      <c r="BT12" s="94"/>
+      <c r="BU12" s="94"/>
+      <c r="BV12" s="92"/>
+      <c r="BW12" s="94"/>
+      <c r="BX12" s="94"/>
+      <c r="BY12" s="94"/>
+      <c r="BZ12" s="92"/>
     </row>
     <row r="13" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
@@ -3052,80 +3055,80 @@
         <f>E13+9</f>
         <v>44649</v>
       </c>
-      <c r="G13" s="90"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="16">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="110"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="110"/>
-      <c r="AL13" s="110"/>
-      <c r="AM13" s="110"/>
-      <c r="AN13" s="110"/>
-      <c r="AO13" s="110"/>
-      <c r="AP13" s="110"/>
-      <c r="AQ13" s="110"/>
-      <c r="AR13" s="110"/>
-      <c r="AS13" s="110"/>
-      <c r="AT13" s="110"/>
-      <c r="AU13" s="110"/>
-      <c r="AV13" s="110"/>
-      <c r="AW13" s="110"/>
-      <c r="AX13" s="110"/>
-      <c r="AY13" s="110"/>
-      <c r="AZ13" s="110"/>
-      <c r="BA13" s="110"/>
-      <c r="BB13" s="110"/>
-      <c r="BC13" s="110"/>
-      <c r="BD13" s="110"/>
-      <c r="BE13" s="110"/>
-      <c r="BF13" s="110"/>
-      <c r="BG13" s="110"/>
-      <c r="BH13" s="110"/>
-      <c r="BI13" s="110"/>
-      <c r="BJ13" s="110"/>
-      <c r="BK13" s="110"/>
-      <c r="BL13" s="110"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="101"/>
-      <c r="BP13" s="101"/>
-      <c r="BQ13" s="101"/>
-      <c r="BR13" s="101"/>
-      <c r="BS13" s="101"/>
-      <c r="BT13" s="101"/>
-      <c r="BU13" s="101"/>
-      <c r="BV13" s="99"/>
-      <c r="BW13" s="101"/>
-      <c r="BX13" s="101"/>
-      <c r="BY13" s="101"/>
-      <c r="BZ13" s="99"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="103"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="103"/>
+      <c r="AT13" s="103"/>
+      <c r="AU13" s="103"/>
+      <c r="AV13" s="103"/>
+      <c r="AW13" s="103"/>
+      <c r="AX13" s="103"/>
+      <c r="AY13" s="103"/>
+      <c r="AZ13" s="103"/>
+      <c r="BA13" s="103"/>
+      <c r="BB13" s="103"/>
+      <c r="BC13" s="103"/>
+      <c r="BD13" s="103"/>
+      <c r="BE13" s="103"/>
+      <c r="BF13" s="103"/>
+      <c r="BG13" s="103"/>
+      <c r="BH13" s="103"/>
+      <c r="BI13" s="103"/>
+      <c r="BJ13" s="103"/>
+      <c r="BK13" s="103"/>
+      <c r="BL13" s="103"/>
+      <c r="BN13" s="90"/>
+      <c r="BO13" s="94"/>
+      <c r="BP13" s="94"/>
+      <c r="BQ13" s="94"/>
+      <c r="BR13" s="94"/>
+      <c r="BS13" s="94"/>
+      <c r="BT13" s="94"/>
+      <c r="BU13" s="94"/>
+      <c r="BV13" s="92"/>
+      <c r="BW13" s="94"/>
+      <c r="BX13" s="94"/>
+      <c r="BY13" s="94"/>
+      <c r="BZ13" s="92"/>
     </row>
     <row r="14" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
@@ -3138,80 +3141,80 @@
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="90"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="110"/>
-      <c r="AL14" s="110"/>
-      <c r="AM14" s="110"/>
-      <c r="AN14" s="110"/>
-      <c r="AO14" s="110"/>
-      <c r="AP14" s="110"/>
-      <c r="AQ14" s="110"/>
-      <c r="AR14" s="110"/>
-      <c r="AS14" s="110"/>
-      <c r="AT14" s="110"/>
-      <c r="AU14" s="110"/>
-      <c r="AV14" s="110"/>
-      <c r="AW14" s="110"/>
-      <c r="AX14" s="110"/>
-      <c r="AY14" s="110"/>
-      <c r="AZ14" s="110"/>
-      <c r="BA14" s="110"/>
-      <c r="BB14" s="110"/>
-      <c r="BC14" s="110"/>
-      <c r="BD14" s="110"/>
-      <c r="BE14" s="110"/>
-      <c r="BF14" s="110"/>
-      <c r="BG14" s="110"/>
-      <c r="BH14" s="110"/>
-      <c r="BI14" s="110"/>
-      <c r="BJ14" s="110"/>
-      <c r="BK14" s="110"/>
-      <c r="BL14" s="110"/>
-      <c r="BN14" s="97"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="96"/>
-      <c r="BQ14" s="101"/>
-      <c r="BR14" s="101"/>
-      <c r="BS14" s="101"/>
-      <c r="BT14" s="101"/>
-      <c r="BU14" s="101"/>
-      <c r="BV14" s="99"/>
-      <c r="BW14" s="101"/>
-      <c r="BX14" s="101"/>
-      <c r="BY14" s="101"/>
-      <c r="BZ14" s="99"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="103"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="103"/>
+      <c r="AR14" s="103"/>
+      <c r="AS14" s="103"/>
+      <c r="AT14" s="103"/>
+      <c r="AU14" s="103"/>
+      <c r="AV14" s="103"/>
+      <c r="AW14" s="103"/>
+      <c r="AX14" s="103"/>
+      <c r="AY14" s="103"/>
+      <c r="AZ14" s="103"/>
+      <c r="BA14" s="103"/>
+      <c r="BB14" s="103"/>
+      <c r="BC14" s="103"/>
+      <c r="BD14" s="103"/>
+      <c r="BE14" s="103"/>
+      <c r="BF14" s="103"/>
+      <c r="BG14" s="103"/>
+      <c r="BH14" s="103"/>
+      <c r="BI14" s="103"/>
+      <c r="BJ14" s="103"/>
+      <c r="BK14" s="103"/>
+      <c r="BL14" s="103"/>
+      <c r="BN14" s="90"/>
+      <c r="BO14" s="88"/>
+      <c r="BP14" s="89"/>
+      <c r="BQ14" s="94"/>
+      <c r="BR14" s="94"/>
+      <c r="BS14" s="94"/>
+      <c r="BT14" s="94"/>
+      <c r="BU14" s="94"/>
+      <c r="BV14" s="92"/>
+      <c r="BW14" s="94"/>
+      <c r="BX14" s="94"/>
+      <c r="BY14" s="94"/>
+      <c r="BZ14" s="92"/>
     </row>
     <row r="15" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
@@ -3228,80 +3231,80 @@
         <f>E15+7</f>
         <v>44657</v>
       </c>
-      <c r="G15" s="90"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="110"/>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="110"/>
-      <c r="AO15" s="110"/>
-      <c r="AP15" s="110"/>
-      <c r="AQ15" s="110"/>
-      <c r="AR15" s="110"/>
-      <c r="AS15" s="110"/>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="110"/>
-      <c r="AV15" s="110"/>
-      <c r="AW15" s="110"/>
-      <c r="AX15" s="110"/>
-      <c r="AY15" s="110"/>
-      <c r="AZ15" s="110"/>
-      <c r="BA15" s="110"/>
-      <c r="BB15" s="110"/>
-      <c r="BC15" s="110"/>
-      <c r="BD15" s="110"/>
-      <c r="BE15" s="110"/>
-      <c r="BF15" s="110"/>
-      <c r="BG15" s="110"/>
-      <c r="BH15" s="110"/>
-      <c r="BI15" s="110"/>
-      <c r="BJ15" s="110"/>
-      <c r="BK15" s="110"/>
-      <c r="BL15" s="110"/>
-      <c r="BN15" s="97"/>
-      <c r="BO15" s="97"/>
-      <c r="BP15" s="98"/>
-      <c r="BQ15" s="101"/>
-      <c r="BR15" s="101"/>
-      <c r="BS15" s="101"/>
-      <c r="BT15" s="101"/>
-      <c r="BU15" s="101"/>
-      <c r="BV15" s="99"/>
-      <c r="BW15" s="101"/>
-      <c r="BX15" s="101"/>
-      <c r="BY15" s="101"/>
-      <c r="BZ15" s="99"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="103"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="103"/>
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="103"/>
+      <c r="AR15" s="103"/>
+      <c r="AS15" s="103"/>
+      <c r="AT15" s="103"/>
+      <c r="AU15" s="103"/>
+      <c r="AV15" s="103"/>
+      <c r="AW15" s="103"/>
+      <c r="AX15" s="103"/>
+      <c r="AY15" s="103"/>
+      <c r="AZ15" s="103"/>
+      <c r="BA15" s="103"/>
+      <c r="BB15" s="103"/>
+      <c r="BC15" s="103"/>
+      <c r="BD15" s="103"/>
+      <c r="BE15" s="103"/>
+      <c r="BF15" s="103"/>
+      <c r="BG15" s="103"/>
+      <c r="BH15" s="103"/>
+      <c r="BI15" s="103"/>
+      <c r="BJ15" s="103"/>
+      <c r="BK15" s="103"/>
+      <c r="BL15" s="103"/>
+      <c r="BN15" s="90"/>
+      <c r="BO15" s="90"/>
+      <c r="BP15" s="91"/>
+      <c r="BQ15" s="94"/>
+      <c r="BR15" s="94"/>
+      <c r="BS15" s="94"/>
+      <c r="BT15" s="94"/>
+      <c r="BU15" s="94"/>
+      <c r="BV15" s="92"/>
+      <c r="BW15" s="94"/>
+      <c r="BX15" s="94"/>
+      <c r="BY15" s="94"/>
+      <c r="BZ15" s="92"/>
     </row>
     <row r="16" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
@@ -3318,80 +3321,80 @@
         <f>E16+7</f>
         <v>44665</v>
       </c>
-      <c r="G16" s="90"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="110"/>
-      <c r="AL16" s="110"/>
-      <c r="AM16" s="110"/>
-      <c r="AN16" s="110"/>
-      <c r="AO16" s="110"/>
-      <c r="AP16" s="110"/>
-      <c r="AQ16" s="110"/>
-      <c r="AR16" s="110"/>
-      <c r="AS16" s="110"/>
-      <c r="AT16" s="110"/>
-      <c r="AU16" s="110"/>
-      <c r="AV16" s="110"/>
-      <c r="AW16" s="110"/>
-      <c r="AX16" s="110"/>
-      <c r="AY16" s="110"/>
-      <c r="AZ16" s="110"/>
-      <c r="BA16" s="110"/>
-      <c r="BB16" s="110"/>
-      <c r="BC16" s="110"/>
-      <c r="BD16" s="110"/>
-      <c r="BE16" s="110"/>
-      <c r="BF16" s="110"/>
-      <c r="BG16" s="110"/>
-      <c r="BH16" s="110"/>
-      <c r="BI16" s="110"/>
-      <c r="BJ16" s="110"/>
-      <c r="BK16" s="110"/>
-      <c r="BL16" s="110"/>
-      <c r="BN16" s="97"/>
-      <c r="BO16" s="97"/>
-      <c r="BP16" s="96"/>
-      <c r="BQ16" s="101"/>
-      <c r="BR16" s="101"/>
-      <c r="BS16" s="101"/>
-      <c r="BT16" s="101"/>
-      <c r="BU16" s="101"/>
-      <c r="BV16" s="99"/>
-      <c r="BW16" s="101"/>
-      <c r="BX16" s="101"/>
-      <c r="BY16" s="101"/>
-      <c r="BZ16" s="99"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="103"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="103"/>
+      <c r="AT16" s="103"/>
+      <c r="AU16" s="103"/>
+      <c r="AV16" s="103"/>
+      <c r="AW16" s="103"/>
+      <c r="AX16" s="103"/>
+      <c r="AY16" s="103"/>
+      <c r="AZ16" s="103"/>
+      <c r="BA16" s="103"/>
+      <c r="BB16" s="103"/>
+      <c r="BC16" s="103"/>
+      <c r="BD16" s="103"/>
+      <c r="BE16" s="103"/>
+      <c r="BF16" s="103"/>
+      <c r="BG16" s="103"/>
+      <c r="BH16" s="103"/>
+      <c r="BI16" s="103"/>
+      <c r="BJ16" s="103"/>
+      <c r="BK16" s="103"/>
+      <c r="BL16" s="103"/>
+      <c r="BN16" s="90"/>
+      <c r="BO16" s="90"/>
+      <c r="BP16" s="89"/>
+      <c r="BQ16" s="94"/>
+      <c r="BR16" s="94"/>
+      <c r="BS16" s="94"/>
+      <c r="BT16" s="94"/>
+      <c r="BU16" s="94"/>
+      <c r="BV16" s="92"/>
+      <c r="BW16" s="94"/>
+      <c r="BX16" s="94"/>
+      <c r="BY16" s="94"/>
+      <c r="BZ16" s="92"/>
     </row>
     <row r="17" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
@@ -3408,80 +3411,80 @@
         <f>E17+60</f>
         <v>44726</v>
       </c>
-      <c r="G17" s="90"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="16">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="110"/>
-      <c r="AM17" s="110"/>
-      <c r="AN17" s="110"/>
-      <c r="AO17" s="110"/>
-      <c r="AP17" s="110"/>
-      <c r="AQ17" s="110"/>
-      <c r="AR17" s="110"/>
-      <c r="AS17" s="110"/>
-      <c r="AT17" s="110"/>
-      <c r="AU17" s="110"/>
-      <c r="AV17" s="110"/>
-      <c r="AW17" s="110"/>
-      <c r="AX17" s="110"/>
-      <c r="AY17" s="110"/>
-      <c r="AZ17" s="110"/>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="110"/>
-      <c r="BC17" s="110"/>
-      <c r="BD17" s="110"/>
-      <c r="BE17" s="110"/>
-      <c r="BF17" s="110"/>
-      <c r="BG17" s="110"/>
-      <c r="BH17" s="110"/>
-      <c r="BI17" s="110"/>
-      <c r="BJ17" s="110"/>
-      <c r="BK17" s="110"/>
-      <c r="BL17" s="110"/>
-      <c r="BN17" s="97"/>
-      <c r="BO17" s="97"/>
-      <c r="BP17" s="99"/>
-      <c r="BQ17" s="101"/>
-      <c r="BR17" s="101"/>
-      <c r="BS17" s="101"/>
-      <c r="BT17" s="101"/>
-      <c r="BU17" s="101"/>
-      <c r="BV17" s="99"/>
-      <c r="BW17" s="101"/>
-      <c r="BX17" s="101"/>
-      <c r="BY17" s="101"/>
-      <c r="BZ17" s="99"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="103"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="103"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="103"/>
+      <c r="AY17" s="103"/>
+      <c r="AZ17" s="103"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="103"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="103"/>
+      <c r="BE17" s="103"/>
+      <c r="BF17" s="103"/>
+      <c r="BG17" s="103"/>
+      <c r="BH17" s="103"/>
+      <c r="BI17" s="103"/>
+      <c r="BJ17" s="103"/>
+      <c r="BK17" s="103"/>
+      <c r="BL17" s="103"/>
+      <c r="BN17" s="90"/>
+      <c r="BO17" s="90"/>
+      <c r="BP17" s="92"/>
+      <c r="BQ17" s="94"/>
+      <c r="BR17" s="94"/>
+      <c r="BS17" s="94"/>
+      <c r="BT17" s="94"/>
+      <c r="BU17" s="94"/>
+      <c r="BV17" s="92"/>
+      <c r="BW17" s="94"/>
+      <c r="BX17" s="94"/>
+      <c r="BY17" s="94"/>
+      <c r="BZ17" s="92"/>
     </row>
     <row r="18" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
@@ -3498,80 +3501,80 @@
         <f>E18+60</f>
         <v>44726</v>
       </c>
-      <c r="G18" s="90"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="16">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="110"/>
-      <c r="AO18" s="110"/>
-      <c r="AP18" s="110"/>
-      <c r="AQ18" s="110"/>
-      <c r="AR18" s="110"/>
-      <c r="AS18" s="110"/>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="110"/>
-      <c r="AV18" s="110"/>
-      <c r="AW18" s="110"/>
-      <c r="AX18" s="110"/>
-      <c r="AY18" s="110"/>
-      <c r="AZ18" s="110"/>
-      <c r="BA18" s="110"/>
-      <c r="BB18" s="110"/>
-      <c r="BC18" s="110"/>
-      <c r="BD18" s="110"/>
-      <c r="BE18" s="110"/>
-      <c r="BF18" s="110"/>
-      <c r="BG18" s="110"/>
-      <c r="BH18" s="110"/>
-      <c r="BI18" s="110"/>
-      <c r="BJ18" s="110"/>
-      <c r="BK18" s="110"/>
-      <c r="BL18" s="110"/>
-      <c r="BN18" s="97"/>
-      <c r="BO18" s="97"/>
-      <c r="BP18" s="99"/>
-      <c r="BQ18" s="101"/>
-      <c r="BR18" s="101"/>
-      <c r="BS18" s="101"/>
-      <c r="BT18" s="101"/>
-      <c r="BU18" s="101"/>
-      <c r="BV18" s="99"/>
-      <c r="BW18" s="101"/>
-      <c r="BX18" s="101"/>
-      <c r="BY18" s="101"/>
-      <c r="BZ18" s="99"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="103"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="103"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="103"/>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="103"/>
+      <c r="AT18" s="103"/>
+      <c r="AU18" s="103"/>
+      <c r="AV18" s="103"/>
+      <c r="AW18" s="103"/>
+      <c r="AX18" s="103"/>
+      <c r="AY18" s="103"/>
+      <c r="AZ18" s="103"/>
+      <c r="BA18" s="103"/>
+      <c r="BB18" s="103"/>
+      <c r="BC18" s="103"/>
+      <c r="BD18" s="103"/>
+      <c r="BE18" s="103"/>
+      <c r="BF18" s="103"/>
+      <c r="BG18" s="103"/>
+      <c r="BH18" s="103"/>
+      <c r="BI18" s="103"/>
+      <c r="BJ18" s="103"/>
+      <c r="BK18" s="103"/>
+      <c r="BL18" s="103"/>
+      <c r="BN18" s="90"/>
+      <c r="BO18" s="90"/>
+      <c r="BP18" s="92"/>
+      <c r="BQ18" s="94"/>
+      <c r="BR18" s="94"/>
+      <c r="BS18" s="94"/>
+      <c r="BT18" s="94"/>
+      <c r="BU18" s="94"/>
+      <c r="BV18" s="92"/>
+      <c r="BW18" s="94"/>
+      <c r="BX18" s="94"/>
+      <c r="BY18" s="94"/>
+      <c r="BZ18" s="92"/>
     </row>
     <row r="19" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
@@ -3588,80 +3591,82 @@
         <f>E19+10</f>
         <v>44737</v>
       </c>
-      <c r="G19" s="90"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="110"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="110"/>
-      <c r="AO19" s="110"/>
-      <c r="AP19" s="110"/>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="110"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="110"/>
-      <c r="AV19" s="110"/>
-      <c r="AW19" s="110"/>
-      <c r="AX19" s="110"/>
-      <c r="AY19" s="110"/>
-      <c r="AZ19" s="110"/>
-      <c r="BA19" s="110"/>
-      <c r="BB19" s="110"/>
-      <c r="BC19" s="110"/>
-      <c r="BD19" s="110"/>
-      <c r="BE19" s="110"/>
-      <c r="BF19" s="110"/>
-      <c r="BG19" s="110"/>
-      <c r="BH19" s="110"/>
-      <c r="BI19" s="110"/>
-      <c r="BJ19" s="110"/>
-      <c r="BK19" s="110"/>
-      <c r="BL19" s="110"/>
-      <c r="BN19" s="97"/>
-      <c r="BO19" s="97"/>
-      <c r="BP19" s="99"/>
-      <c r="BQ19" s="101"/>
-      <c r="BR19" s="101"/>
-      <c r="BS19" s="101"/>
-      <c r="BT19" s="101"/>
-      <c r="BU19" s="101"/>
-      <c r="BV19" s="99"/>
-      <c r="BW19" s="101"/>
-      <c r="BX19" s="101"/>
-      <c r="BY19" s="101"/>
-      <c r="BZ19" s="99"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="103"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="103"/>
+      <c r="AY19" s="103"/>
+      <c r="AZ19" s="103"/>
+      <c r="BA19" s="103"/>
+      <c r="BB19" s="103"/>
+      <c r="BC19" s="103"/>
+      <c r="BD19" s="103"/>
+      <c r="BE19" s="103"/>
+      <c r="BF19" s="103"/>
+      <c r="BG19" s="103"/>
+      <c r="BH19" s="103"/>
+      <c r="BI19" s="103"/>
+      <c r="BJ19" s="103"/>
+      <c r="BK19" s="103"/>
+      <c r="BL19" s="103"/>
+      <c r="BN19" s="90"/>
+      <c r="BO19" s="90"/>
+      <c r="BP19" s="92"/>
+      <c r="BQ19" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="BR19" s="94"/>
+      <c r="BS19" s="94"/>
+      <c r="BT19" s="94"/>
+      <c r="BU19" s="94"/>
+      <c r="BV19" s="92"/>
+      <c r="BW19" s="94"/>
+      <c r="BX19" s="94"/>
+      <c r="BY19" s="94"/>
+      <c r="BZ19" s="92"/>
     </row>
     <row r="20" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
@@ -3674,80 +3679,80 @@
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="90"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="110"/>
-      <c r="AL20" s="110"/>
-      <c r="AM20" s="110"/>
-      <c r="AN20" s="110"/>
-      <c r="AO20" s="110"/>
-      <c r="AP20" s="110"/>
-      <c r="AQ20" s="110"/>
-      <c r="AR20" s="110"/>
-      <c r="AS20" s="110"/>
-      <c r="AT20" s="110"/>
-      <c r="AU20" s="110"/>
-      <c r="AV20" s="110"/>
-      <c r="AW20" s="110"/>
-      <c r="AX20" s="110"/>
-      <c r="AY20" s="110"/>
-      <c r="AZ20" s="110"/>
-      <c r="BA20" s="110"/>
-      <c r="BB20" s="110"/>
-      <c r="BC20" s="110"/>
-      <c r="BD20" s="110"/>
-      <c r="BE20" s="110"/>
-      <c r="BF20" s="110"/>
-      <c r="BG20" s="110"/>
-      <c r="BH20" s="110"/>
-      <c r="BI20" s="110"/>
-      <c r="BJ20" s="110"/>
-      <c r="BK20" s="110"/>
-      <c r="BL20" s="110"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="97"/>
-      <c r="BP20" s="99"/>
-      <c r="BQ20" s="101"/>
-      <c r="BR20" s="101"/>
-      <c r="BS20" s="101"/>
-      <c r="BT20" s="101"/>
-      <c r="BU20" s="101"/>
-      <c r="BV20" s="99"/>
-      <c r="BW20" s="101"/>
-      <c r="BX20" s="101"/>
-      <c r="BY20" s="101"/>
-      <c r="BZ20" s="99"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="103"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="103"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="103"/>
+      <c r="AT20" s="103"/>
+      <c r="AU20" s="103"/>
+      <c r="AV20" s="103"/>
+      <c r="AW20" s="103"/>
+      <c r="AX20" s="103"/>
+      <c r="AY20" s="103"/>
+      <c r="AZ20" s="103"/>
+      <c r="BA20" s="103"/>
+      <c r="BB20" s="103"/>
+      <c r="BC20" s="103"/>
+      <c r="BD20" s="103"/>
+      <c r="BE20" s="103"/>
+      <c r="BF20" s="103"/>
+      <c r="BG20" s="103"/>
+      <c r="BH20" s="103"/>
+      <c r="BI20" s="103"/>
+      <c r="BJ20" s="103"/>
+      <c r="BK20" s="103"/>
+      <c r="BL20" s="103"/>
+      <c r="BN20" s="90"/>
+      <c r="BO20" s="90"/>
+      <c r="BP20" s="92"/>
+      <c r="BQ20" s="94"/>
+      <c r="BR20" s="94"/>
+      <c r="BS20" s="94"/>
+      <c r="BT20" s="94"/>
+      <c r="BU20" s="94"/>
+      <c r="BV20" s="92"/>
+      <c r="BW20" s="94"/>
+      <c r="BX20" s="94"/>
+      <c r="BY20" s="94"/>
+      <c r="BZ20" s="92"/>
     </row>
     <row r="21" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
@@ -3764,80 +3769,80 @@
         <f>E21+15</f>
         <v>44753</v>
       </c>
-      <c r="G21" s="90"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="16">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="110"/>
-      <c r="AM21" s="110"/>
-      <c r="AN21" s="110"/>
-      <c r="AO21" s="110"/>
-      <c r="AP21" s="110"/>
-      <c r="AQ21" s="110"/>
-      <c r="AR21" s="110"/>
-      <c r="AS21" s="110"/>
-      <c r="AT21" s="110"/>
-      <c r="AU21" s="110"/>
-      <c r="AV21" s="110"/>
-      <c r="AW21" s="110"/>
-      <c r="AX21" s="110"/>
-      <c r="AY21" s="110"/>
-      <c r="AZ21" s="110"/>
-      <c r="BA21" s="110"/>
-      <c r="BB21" s="110"/>
-      <c r="BC21" s="110"/>
-      <c r="BD21" s="110"/>
-      <c r="BE21" s="110"/>
-      <c r="BF21" s="110"/>
-      <c r="BG21" s="110"/>
-      <c r="BH21" s="110"/>
-      <c r="BI21" s="110"/>
-      <c r="BJ21" s="110"/>
-      <c r="BK21" s="110"/>
-      <c r="BL21" s="110"/>
-      <c r="BN21" s="97"/>
-      <c r="BO21" s="100"/>
-      <c r="BP21" s="98"/>
-      <c r="BQ21" s="101"/>
-      <c r="BR21" s="101"/>
-      <c r="BS21" s="101"/>
-      <c r="BT21" s="101"/>
-      <c r="BU21" s="101"/>
-      <c r="BV21" s="99"/>
-      <c r="BW21" s="101"/>
-      <c r="BX21" s="101"/>
-      <c r="BY21" s="101"/>
-      <c r="BZ21" s="99"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="103"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
+      <c r="AU21" s="103"/>
+      <c r="AV21" s="103"/>
+      <c r="AW21" s="103"/>
+      <c r="AX21" s="103"/>
+      <c r="AY21" s="103"/>
+      <c r="AZ21" s="103"/>
+      <c r="BA21" s="103"/>
+      <c r="BB21" s="103"/>
+      <c r="BC21" s="103"/>
+      <c r="BD21" s="103"/>
+      <c r="BE21" s="103"/>
+      <c r="BF21" s="103"/>
+      <c r="BG21" s="103"/>
+      <c r="BH21" s="103"/>
+      <c r="BI21" s="103"/>
+      <c r="BJ21" s="103"/>
+      <c r="BK21" s="103"/>
+      <c r="BL21" s="103"/>
+      <c r="BN21" s="90"/>
+      <c r="BO21" s="93"/>
+      <c r="BP21" s="91"/>
+      <c r="BQ21" s="94"/>
+      <c r="BR21" s="94"/>
+      <c r="BS21" s="94"/>
+      <c r="BT21" s="94"/>
+      <c r="BU21" s="94"/>
+      <c r="BV21" s="92"/>
+      <c r="BW21" s="94"/>
+      <c r="BX21" s="94"/>
+      <c r="BY21" s="94"/>
+      <c r="BZ21" s="92"/>
     </row>
     <row r="22" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
@@ -3854,80 +3859,80 @@
         <f>E22+15</f>
         <v>44753</v>
       </c>
-      <c r="G22" s="90"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="16">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="110"/>
-      <c r="AN22" s="110"/>
-      <c r="AO22" s="110"/>
-      <c r="AP22" s="110"/>
-      <c r="AQ22" s="110"/>
-      <c r="AR22" s="110"/>
-      <c r="AS22" s="110"/>
-      <c r="AT22" s="110"/>
-      <c r="AU22" s="110"/>
-      <c r="AV22" s="110"/>
-      <c r="AW22" s="110"/>
-      <c r="AX22" s="110"/>
-      <c r="AY22" s="110"/>
-      <c r="AZ22" s="110"/>
-      <c r="BA22" s="110"/>
-      <c r="BB22" s="110"/>
-      <c r="BC22" s="110"/>
-      <c r="BD22" s="110"/>
-      <c r="BE22" s="110"/>
-      <c r="BF22" s="110"/>
-      <c r="BG22" s="110"/>
-      <c r="BH22" s="110"/>
-      <c r="BI22" s="110"/>
-      <c r="BJ22" s="110"/>
-      <c r="BK22" s="110"/>
-      <c r="BL22" s="110"/>
-      <c r="BN22" s="97"/>
-      <c r="BO22" s="101"/>
-      <c r="BP22" s="101"/>
-      <c r="BQ22" s="101"/>
-      <c r="BR22" s="101"/>
-      <c r="BS22" s="101"/>
-      <c r="BT22" s="101"/>
-      <c r="BU22" s="101"/>
-      <c r="BV22" s="99"/>
-      <c r="BW22" s="101"/>
-      <c r="BX22" s="101"/>
-      <c r="BY22" s="101"/>
-      <c r="BZ22" s="99"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="103"/>
+      <c r="AM22" s="103"/>
+      <c r="AN22" s="103"/>
+      <c r="AO22" s="103"/>
+      <c r="AP22" s="103"/>
+      <c r="AQ22" s="103"/>
+      <c r="AR22" s="103"/>
+      <c r="AS22" s="103"/>
+      <c r="AT22" s="103"/>
+      <c r="AU22" s="103"/>
+      <c r="AV22" s="103"/>
+      <c r="AW22" s="103"/>
+      <c r="AX22" s="103"/>
+      <c r="AY22" s="103"/>
+      <c r="AZ22" s="103"/>
+      <c r="BA22" s="103"/>
+      <c r="BB22" s="103"/>
+      <c r="BC22" s="103"/>
+      <c r="BD22" s="103"/>
+      <c r="BE22" s="103"/>
+      <c r="BF22" s="103"/>
+      <c r="BG22" s="103"/>
+      <c r="BH22" s="103"/>
+      <c r="BI22" s="103"/>
+      <c r="BJ22" s="103"/>
+      <c r="BK22" s="103"/>
+      <c r="BL22" s="103"/>
+      <c r="BN22" s="90"/>
+      <c r="BO22" s="94"/>
+      <c r="BP22" s="94"/>
+      <c r="BQ22" s="94"/>
+      <c r="BR22" s="94"/>
+      <c r="BS22" s="94"/>
+      <c r="BT22" s="94"/>
+      <c r="BU22" s="94"/>
+      <c r="BV22" s="92"/>
+      <c r="BW22" s="94"/>
+      <c r="BX22" s="94"/>
+      <c r="BY22" s="94"/>
+      <c r="BZ22" s="92"/>
     </row>
     <row r="23" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
@@ -3944,80 +3949,80 @@
         <f>E23+7</f>
         <v>44761</v>
       </c>
-      <c r="G23" s="90"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="110"/>
-      <c r="AL23" s="110"/>
-      <c r="AM23" s="110"/>
-      <c r="AN23" s="110"/>
-      <c r="AO23" s="110"/>
-      <c r="AP23" s="110"/>
-      <c r="AQ23" s="110"/>
-      <c r="AR23" s="110"/>
-      <c r="AS23" s="110"/>
-      <c r="AT23" s="110"/>
-      <c r="AU23" s="110"/>
-      <c r="AV23" s="110"/>
-      <c r="AW23" s="110"/>
-      <c r="AX23" s="110"/>
-      <c r="AY23" s="110"/>
-      <c r="AZ23" s="110"/>
-      <c r="BA23" s="110"/>
-      <c r="BB23" s="110"/>
-      <c r="BC23" s="110"/>
-      <c r="BD23" s="110"/>
-      <c r="BE23" s="110"/>
-      <c r="BF23" s="110"/>
-      <c r="BG23" s="110"/>
-      <c r="BH23" s="110"/>
-      <c r="BI23" s="110"/>
-      <c r="BJ23" s="110"/>
-      <c r="BK23" s="110"/>
-      <c r="BL23" s="110"/>
-      <c r="BN23" s="97"/>
-      <c r="BO23" s="101"/>
-      <c r="BP23" s="101"/>
-      <c r="BQ23" s="101"/>
-      <c r="BR23" s="101"/>
-      <c r="BS23" s="101"/>
-      <c r="BT23" s="101"/>
-      <c r="BU23" s="101"/>
-      <c r="BV23" s="99"/>
-      <c r="BW23" s="101"/>
-      <c r="BX23" s="101"/>
-      <c r="BY23" s="101"/>
-      <c r="BZ23" s="99"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="103"/>
+      <c r="Y23" s="103"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="103"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="103"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="103"/>
+      <c r="AK23" s="103"/>
+      <c r="AL23" s="103"/>
+      <c r="AM23" s="103"/>
+      <c r="AN23" s="103"/>
+      <c r="AO23" s="103"/>
+      <c r="AP23" s="103"/>
+      <c r="AQ23" s="103"/>
+      <c r="AR23" s="103"/>
+      <c r="AS23" s="103"/>
+      <c r="AT23" s="103"/>
+      <c r="AU23" s="103"/>
+      <c r="AV23" s="103"/>
+      <c r="AW23" s="103"/>
+      <c r="AX23" s="103"/>
+      <c r="AY23" s="103"/>
+      <c r="AZ23" s="103"/>
+      <c r="BA23" s="103"/>
+      <c r="BB23" s="103"/>
+      <c r="BC23" s="103"/>
+      <c r="BD23" s="103"/>
+      <c r="BE23" s="103"/>
+      <c r="BF23" s="103"/>
+      <c r="BG23" s="103"/>
+      <c r="BH23" s="103"/>
+      <c r="BI23" s="103"/>
+      <c r="BJ23" s="103"/>
+      <c r="BK23" s="103"/>
+      <c r="BL23" s="103"/>
+      <c r="BN23" s="90"/>
+      <c r="BO23" s="94"/>
+      <c r="BP23" s="94"/>
+      <c r="BQ23" s="94"/>
+      <c r="BR23" s="94"/>
+      <c r="BS23" s="94"/>
+      <c r="BT23" s="94"/>
+      <c r="BU23" s="94"/>
+      <c r="BV23" s="92"/>
+      <c r="BW23" s="94"/>
+      <c r="BX23" s="94"/>
+      <c r="BY23" s="94"/>
+      <c r="BZ23" s="92"/>
     </row>
     <row r="24" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
@@ -4034,81 +4039,81 @@
         <f>E24+4</f>
         <v>44766</v>
       </c>
-      <c r="G24" s="90"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="16">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="110"/>
-      <c r="AM24" s="110"/>
-      <c r="AN24" s="110"/>
-      <c r="AO24" s="110"/>
-      <c r="AP24" s="110"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="110"/>
-      <c r="AS24" s="110"/>
-      <c r="AT24" s="110"/>
-      <c r="AU24" s="110"/>
-      <c r="AV24" s="110"/>
-      <c r="AW24" s="110"/>
-      <c r="AX24" s="110"/>
-      <c r="AY24" s="110"/>
-      <c r="AZ24" s="110"/>
-      <c r="BA24" s="110"/>
-      <c r="BB24" s="110"/>
-      <c r="BC24" s="110"/>
-      <c r="BD24" s="110"/>
-      <c r="BE24" s="110"/>
-      <c r="BF24" s="110"/>
-      <c r="BG24" s="110"/>
-      <c r="BH24" s="110"/>
-      <c r="BI24" s="110"/>
-      <c r="BJ24" s="110"/>
-      <c r="BK24" s="110"/>
-      <c r="BL24" s="110"/>
-      <c r="BM24" s="101"/>
-      <c r="BN24" s="97"/>
-      <c r="BO24" s="101"/>
-      <c r="BP24" s="101"/>
-      <c r="BQ24" s="101"/>
-      <c r="BR24" s="101"/>
-      <c r="BS24" s="101"/>
-      <c r="BT24" s="101"/>
-      <c r="BU24" s="101"/>
-      <c r="BV24" s="99"/>
-      <c r="BW24" s="101"/>
-      <c r="BX24" s="101"/>
-      <c r="BY24" s="101"/>
-      <c r="BZ24" s="99"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="103"/>
+      <c r="AM24" s="103"/>
+      <c r="AN24" s="103"/>
+      <c r="AO24" s="103"/>
+      <c r="AP24" s="103"/>
+      <c r="AQ24" s="103"/>
+      <c r="AR24" s="103"/>
+      <c r="AS24" s="103"/>
+      <c r="AT24" s="103"/>
+      <c r="AU24" s="103"/>
+      <c r="AV24" s="103"/>
+      <c r="AW24" s="103"/>
+      <c r="AX24" s="103"/>
+      <c r="AY24" s="103"/>
+      <c r="AZ24" s="103"/>
+      <c r="BA24" s="103"/>
+      <c r="BB24" s="103"/>
+      <c r="BC24" s="103"/>
+      <c r="BD24" s="103"/>
+      <c r="BE24" s="103"/>
+      <c r="BF24" s="103"/>
+      <c r="BG24" s="103"/>
+      <c r="BH24" s="103"/>
+      <c r="BI24" s="103"/>
+      <c r="BJ24" s="103"/>
+      <c r="BK24" s="103"/>
+      <c r="BL24" s="103"/>
+      <c r="BM24" s="94"/>
+      <c r="BN24" s="90"/>
+      <c r="BO24" s="94"/>
+      <c r="BP24" s="94"/>
+      <c r="BQ24" s="94"/>
+      <c r="BR24" s="94"/>
+      <c r="BS24" s="94"/>
+      <c r="BT24" s="94"/>
+      <c r="BU24" s="94"/>
+      <c r="BV24" s="92"/>
+      <c r="BW24" s="94"/>
+      <c r="BX24" s="94"/>
+      <c r="BY24" s="94"/>
+      <c r="BZ24" s="92"/>
     </row>
     <row r="25" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
@@ -4125,80 +4130,80 @@
         <f>E25+11</f>
         <v>44778</v>
       </c>
-      <c r="G25" s="90"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="16">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="110"/>
-      <c r="AM25" s="110"/>
-      <c r="AN25" s="110"/>
-      <c r="AO25" s="110"/>
-      <c r="AP25" s="110"/>
-      <c r="AQ25" s="110"/>
-      <c r="AR25" s="110"/>
-      <c r="AS25" s="110"/>
-      <c r="AT25" s="110"/>
-      <c r="AU25" s="110"/>
-      <c r="AV25" s="110"/>
-      <c r="AW25" s="110"/>
-      <c r="AX25" s="110"/>
-      <c r="AY25" s="110"/>
-      <c r="AZ25" s="110"/>
-      <c r="BA25" s="110"/>
-      <c r="BB25" s="110"/>
-      <c r="BC25" s="110"/>
-      <c r="BD25" s="110"/>
-      <c r="BE25" s="110"/>
-      <c r="BF25" s="110"/>
-      <c r="BG25" s="110"/>
-      <c r="BH25" s="110"/>
-      <c r="BI25" s="110"/>
-      <c r="BJ25" s="110"/>
-      <c r="BK25" s="110"/>
-      <c r="BL25" s="110"/>
-      <c r="BN25" s="100"/>
-      <c r="BO25" s="94"/>
-      <c r="BP25" s="94"/>
-      <c r="BQ25" s="94"/>
-      <c r="BR25" s="94"/>
-      <c r="BS25" s="94"/>
-      <c r="BT25" s="94"/>
-      <c r="BU25" s="94"/>
-      <c r="BV25" s="98"/>
-      <c r="BW25" s="101"/>
-      <c r="BX25" s="101"/>
-      <c r="BY25" s="101"/>
-      <c r="BZ25" s="99"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="103"/>
+      <c r="AC25" s="103"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="103"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="103"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="103"/>
+      <c r="AM25" s="103"/>
+      <c r="AN25" s="103"/>
+      <c r="AO25" s="103"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="103"/>
+      <c r="AR25" s="103"/>
+      <c r="AS25" s="103"/>
+      <c r="AT25" s="103"/>
+      <c r="AU25" s="103"/>
+      <c r="AV25" s="103"/>
+      <c r="AW25" s="103"/>
+      <c r="AX25" s="103"/>
+      <c r="AY25" s="103"/>
+      <c r="AZ25" s="103"/>
+      <c r="BA25" s="103"/>
+      <c r="BB25" s="103"/>
+      <c r="BC25" s="103"/>
+      <c r="BD25" s="103"/>
+      <c r="BE25" s="103"/>
+      <c r="BF25" s="103"/>
+      <c r="BG25" s="103"/>
+      <c r="BH25" s="103"/>
+      <c r="BI25" s="103"/>
+      <c r="BJ25" s="103"/>
+      <c r="BK25" s="103"/>
+      <c r="BL25" s="103"/>
+      <c r="BN25" s="93"/>
+      <c r="BO25" s="87"/>
+      <c r="BP25" s="87"/>
+      <c r="BQ25" s="87"/>
+      <c r="BR25" s="87"/>
+      <c r="BS25" s="87"/>
+      <c r="BT25" s="87"/>
+      <c r="BU25" s="87"/>
+      <c r="BV25" s="91"/>
+      <c r="BW25" s="94"/>
+      <c r="BX25" s="94"/>
+      <c r="BY25" s="94"/>
+      <c r="BZ25" s="92"/>
     </row>
     <row r="26" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
@@ -4209,80 +4214,80 @@
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
       <c r="F26" s="67"/>
-      <c r="G26" s="90"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="110"/>
-      <c r="AM26" s="110"/>
-      <c r="AN26" s="110"/>
-      <c r="AO26" s="110"/>
-      <c r="AP26" s="110"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="110"/>
-      <c r="AS26" s="110"/>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="110"/>
-      <c r="AV26" s="110"/>
-      <c r="AW26" s="110"/>
-      <c r="AX26" s="110"/>
-      <c r="AY26" s="110"/>
-      <c r="AZ26" s="110"/>
-      <c r="BA26" s="110"/>
-      <c r="BB26" s="110"/>
-      <c r="BC26" s="110"/>
-      <c r="BD26" s="110"/>
-      <c r="BE26" s="110"/>
-      <c r="BF26" s="110"/>
-      <c r="BG26" s="110"/>
-      <c r="BH26" s="110"/>
-      <c r="BI26" s="110"/>
-      <c r="BJ26" s="110"/>
-      <c r="BK26" s="110"/>
-      <c r="BL26" s="110"/>
-      <c r="BN26" s="97"/>
-      <c r="BO26" s="101"/>
-      <c r="BP26" s="101"/>
-      <c r="BQ26" s="101"/>
-      <c r="BR26" s="101"/>
-      <c r="BS26" s="101"/>
-      <c r="BT26" s="101"/>
-      <c r="BU26" s="101"/>
-      <c r="BV26" s="101"/>
-      <c r="BW26" s="101"/>
-      <c r="BX26" s="101"/>
-      <c r="BY26" s="101"/>
-      <c r="BZ26" s="99"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="103"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="103"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="103"/>
+      <c r="AU26" s="103"/>
+      <c r="AV26" s="103"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
+      <c r="AZ26" s="103"/>
+      <c r="BA26" s="103"/>
+      <c r="BB26" s="103"/>
+      <c r="BC26" s="103"/>
+      <c r="BD26" s="103"/>
+      <c r="BE26" s="103"/>
+      <c r="BF26" s="103"/>
+      <c r="BG26" s="103"/>
+      <c r="BH26" s="103"/>
+      <c r="BI26" s="103"/>
+      <c r="BJ26" s="103"/>
+      <c r="BK26" s="103"/>
+      <c r="BL26" s="103"/>
+      <c r="BN26" s="90"/>
+      <c r="BO26" s="94"/>
+      <c r="BP26" s="94"/>
+      <c r="BQ26" s="94"/>
+      <c r="BR26" s="94"/>
+      <c r="BS26" s="94"/>
+      <c r="BT26" s="94"/>
+      <c r="BU26" s="94"/>
+      <c r="BV26" s="94"/>
+      <c r="BW26" s="94"/>
+      <c r="BX26" s="94"/>
+      <c r="BY26" s="94"/>
+      <c r="BZ26" s="92"/>
     </row>
     <row r="27" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
@@ -4291,80 +4296,80 @@
       <c r="D27" s="67"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
-      <c r="G27" s="90"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="110"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="110"/>
-      <c r="AN27" s="110"/>
-      <c r="AO27" s="110"/>
-      <c r="AP27" s="110"/>
-      <c r="AQ27" s="110"/>
-      <c r="AR27" s="110"/>
-      <c r="AS27" s="110"/>
-      <c r="AT27" s="110"/>
-      <c r="AU27" s="110"/>
-      <c r="AV27" s="110"/>
-      <c r="AW27" s="110"/>
-      <c r="AX27" s="110"/>
-      <c r="AY27" s="110"/>
-      <c r="AZ27" s="110"/>
-      <c r="BA27" s="110"/>
-      <c r="BB27" s="110"/>
-      <c r="BC27" s="110"/>
-      <c r="BD27" s="110"/>
-      <c r="BE27" s="110"/>
-      <c r="BF27" s="110"/>
-      <c r="BG27" s="110"/>
-      <c r="BH27" s="110"/>
-      <c r="BI27" s="110"/>
-      <c r="BJ27" s="110"/>
-      <c r="BK27" s="110"/>
-      <c r="BL27" s="110"/>
-      <c r="BN27" s="97"/>
-      <c r="BO27" s="101"/>
-      <c r="BP27" s="101"/>
-      <c r="BQ27" s="101"/>
-      <c r="BR27" s="101"/>
-      <c r="BS27" s="101"/>
-      <c r="BT27" s="101"/>
-      <c r="BU27" s="101"/>
-      <c r="BV27" s="101"/>
-      <c r="BW27" s="101"/>
-      <c r="BX27" s="101"/>
-      <c r="BY27" s="101"/>
-      <c r="BZ27" s="99"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="103"/>
+      <c r="AN27" s="103"/>
+      <c r="AO27" s="103"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
+      <c r="AU27" s="103"/>
+      <c r="AV27" s="103"/>
+      <c r="AW27" s="103"/>
+      <c r="AX27" s="103"/>
+      <c r="AY27" s="103"/>
+      <c r="AZ27" s="103"/>
+      <c r="BA27" s="103"/>
+      <c r="BB27" s="103"/>
+      <c r="BC27" s="103"/>
+      <c r="BD27" s="103"/>
+      <c r="BE27" s="103"/>
+      <c r="BF27" s="103"/>
+      <c r="BG27" s="103"/>
+      <c r="BH27" s="103"/>
+      <c r="BI27" s="103"/>
+      <c r="BJ27" s="103"/>
+      <c r="BK27" s="103"/>
+      <c r="BL27" s="103"/>
+      <c r="BN27" s="90"/>
+      <c r="BO27" s="94"/>
+      <c r="BP27" s="94"/>
+      <c r="BQ27" s="94"/>
+      <c r="BR27" s="94"/>
+      <c r="BS27" s="94"/>
+      <c r="BT27" s="94"/>
+      <c r="BU27" s="94"/>
+      <c r="BV27" s="94"/>
+      <c r="BW27" s="94"/>
+      <c r="BX27" s="94"/>
+      <c r="BY27" s="94"/>
+      <c r="BZ27" s="92"/>
     </row>
     <row r="28" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51"/>
@@ -4373,80 +4378,80 @@
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92" t="str">
+      <c r="G28" s="84"/>
+      <c r="H28" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="108"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="108"/>
-      <c r="Z28" s="108"/>
-      <c r="AA28" s="108"/>
-      <c r="AB28" s="108"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="108"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="108"/>
-      <c r="AJ28" s="108"/>
-      <c r="AK28" s="108"/>
-      <c r="AL28" s="108"/>
-      <c r="AM28" s="108"/>
-      <c r="AN28" s="108"/>
-      <c r="AO28" s="108"/>
-      <c r="AP28" s="108"/>
-      <c r="AQ28" s="108"/>
-      <c r="AR28" s="108"/>
-      <c r="AS28" s="108"/>
-      <c r="AT28" s="108"/>
-      <c r="AU28" s="108"/>
-      <c r="AV28" s="108"/>
-      <c r="AW28" s="108"/>
-      <c r="AX28" s="108"/>
-      <c r="AY28" s="108"/>
-      <c r="AZ28" s="108"/>
-      <c r="BA28" s="108"/>
-      <c r="BB28" s="108"/>
-      <c r="BC28" s="108"/>
-      <c r="BD28" s="108"/>
-      <c r="BE28" s="108"/>
-      <c r="BF28" s="108"/>
-      <c r="BG28" s="108"/>
-      <c r="BH28" s="108"/>
-      <c r="BI28" s="108"/>
-      <c r="BJ28" s="108"/>
-      <c r="BK28" s="108"/>
-      <c r="BL28" s="109"/>
-      <c r="BN28" s="100"/>
-      <c r="BO28" s="94"/>
-      <c r="BP28" s="94"/>
-      <c r="BQ28" s="94"/>
-      <c r="BR28" s="94"/>
-      <c r="BS28" s="94"/>
-      <c r="BT28" s="94"/>
-      <c r="BU28" s="94"/>
-      <c r="BV28" s="94"/>
-      <c r="BW28" s="94"/>
-      <c r="BX28" s="94"/>
-      <c r="BY28" s="94"/>
-      <c r="BZ28" s="98"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="101"/>
+      <c r="AR28" s="101"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101"/>
+      <c r="AU28" s="101"/>
+      <c r="AV28" s="101"/>
+      <c r="AW28" s="101"/>
+      <c r="AX28" s="101"/>
+      <c r="AY28" s="101"/>
+      <c r="AZ28" s="101"/>
+      <c r="BA28" s="101"/>
+      <c r="BB28" s="101"/>
+      <c r="BC28" s="101"/>
+      <c r="BD28" s="101"/>
+      <c r="BE28" s="101"/>
+      <c r="BF28" s="101"/>
+      <c r="BG28" s="101"/>
+      <c r="BH28" s="101"/>
+      <c r="BI28" s="101"/>
+      <c r="BJ28" s="101"/>
+      <c r="BK28" s="101"/>
+      <c r="BL28" s="102"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="87"/>
+      <c r="BP28" s="87"/>
+      <c r="BQ28" s="87"/>
+      <c r="BR28" s="87"/>
+      <c r="BS28" s="87"/>
+      <c r="BT28" s="87"/>
+      <c r="BU28" s="87"/>
+      <c r="BV28" s="87"/>
+      <c r="BW28" s="87"/>
+      <c r="BX28" s="87"/>
+      <c r="BY28" s="87"/>
+      <c r="BZ28" s="91"/>
     </row>
     <row r="29" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="51"/>
@@ -4455,67 +4460,67 @@
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87" t="str">
+      <c r="G29" s="80"/>
+      <c r="H29" s="80" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="86"/>
-      <c r="AJ29" s="86"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="86"/>
-      <c r="AO29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AX29" s="86"/>
-      <c r="AY29" s="86"/>
-      <c r="AZ29" s="86"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="86"/>
-      <c r="BC29" s="86"/>
-      <c r="BD29" s="86"/>
-      <c r="BE29" s="86"/>
-      <c r="BF29" s="86"/>
-      <c r="BG29" s="86"/>
-      <c r="BH29" s="86"/>
-      <c r="BI29" s="86"/>
-      <c r="BJ29" s="86"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="86"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="79"/>
+      <c r="BE29" s="79"/>
+      <c r="BF29" s="79"/>
+      <c r="BG29" s="79"/>
+      <c r="BH29" s="79"/>
+      <c r="BI29" s="79"/>
+      <c r="BJ29" s="79"/>
+      <c r="BK29" s="79"/>
+      <c r="BL29" s="79"/>
     </row>
     <row r="30" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51"/>
@@ -4811,17 +4816,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D25 D32:D33">
     <cfRule type="dataBar" priority="14">
@@ -4993,6 +4998,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5280,36 +5314,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5328,24 +5353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>